--- a/Data_frame/balancos_definitivos/ILLS4.xlsx
+++ b/Data_frame/balancos_definitivos/ILLS4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI80"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,81 +534,6 @@
           <t>31/03/2004</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2024</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2024</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -673,51 +598,6 @@
       <c r="T2" t="n">
         <v>76454</v>
       </c>
-      <c r="U2" t="n">
-        <v>420902.016</v>
-      </c>
-      <c r="V2" t="n">
-        <v>576774.976</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1356273.024</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1503452.032</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2761538.048</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2934680.064</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3072066.048</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3332614.912</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3209582.08</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3198529.024</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3309020.928</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3205788.928</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3443461.12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>3195459.072</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1597284.992</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -782,51 +662,6 @@
       <c r="T3" t="n">
         <v>16915</v>
       </c>
-      <c r="U3" t="n">
-        <v>231494</v>
-      </c>
-      <c r="V3" t="n">
-        <v>234932</v>
-      </c>
-      <c r="W3" t="n">
-        <v>965502.0159999999</v>
-      </c>
-      <c r="X3" t="n">
-        <v>901025.9840000001</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>882798.976</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>967694.0159999999</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1009310.976</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1156204.032</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>997881.9840000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>987923.008</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>926787.008</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>867462.976</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1131846.016</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>897366.0159999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>729456</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -891,51 +726,6 @@
       <c r="T4" t="n">
         <v>112</v>
       </c>
-      <c r="U4" t="n">
-        <v>67250</v>
-      </c>
-      <c r="V4" t="n">
-        <v>39803</v>
-      </c>
-      <c r="W4" t="n">
-        <v>757251.008</v>
-      </c>
-      <c r="X4" t="n">
-        <v>596529.024</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>210042</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>196896.992</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>223964.992</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>262082</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>293119.008</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>267747.008</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>207755.008</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>174960.992</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>414148</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>187946</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>90084</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1000,51 +790,6 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14488</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17824</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>34670</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10090</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14324</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>30909</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1109,51 +854,6 @@
       <c r="T6" t="n">
         <v>9161</v>
       </c>
-      <c r="U6" t="n">
-        <v>99804</v>
-      </c>
-      <c r="V6" t="n">
-        <v>118195</v>
-      </c>
-      <c r="W6" t="n">
-        <v>142376</v>
-      </c>
-      <c r="X6" t="n">
-        <v>185572.992</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>382809.984</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>414464.992</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>435961.984</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>480558.016</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>431452</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>472969.984</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>481455.008</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>430913.984</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>495975.008</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>504660</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>439568.992</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1218,51 +918,6 @@
       <c r="T7" t="n">
         <v>4272</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1327,51 +982,6 @@
       <c r="T8" t="n">
         <v>0</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1436,51 +1046,6 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
-      <c r="U9" t="n">
-        <v>18838</v>
-      </c>
-      <c r="V9" t="n">
-        <v>27286</v>
-      </c>
-      <c r="W9" t="n">
-        <v>19014</v>
-      </c>
-      <c r="X9" t="n">
-        <v>29351</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>85914</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>98231</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>72611</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>121615</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>123794</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>127138</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>105963</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>113195</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>77687</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>63980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>62512</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1545,51 +1110,6 @@
       <c r="T10" t="n">
         <v>0</v>
       </c>
-      <c r="U10" t="n">
-        <v>761</v>
-      </c>
-      <c r="V10" t="n">
-        <v>5870</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1388</v>
-      </c>
-      <c r="X10" t="n">
-        <v>2270</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1989</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>16593</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>4085</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7345</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>4822</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>4464</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>2985</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>5727</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>5397</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6703</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6418</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1654,51 +1174,6 @@
       <c r="T11" t="n">
         <v>3370</v>
       </c>
-      <c r="U11" t="n">
-        <v>44841</v>
-      </c>
-      <c r="V11" t="n">
-        <v>43778</v>
-      </c>
-      <c r="W11" t="n">
-        <v>45473</v>
-      </c>
-      <c r="X11" t="n">
-        <v>72815</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>202044</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>241508</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>272688</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>284604</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>144695.008</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>115604</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>110805</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>107996</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>128549</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>119753</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>99964</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1763,51 +1238,6 @@
       <c r="T12" t="n">
         <v>36006</v>
       </c>
-      <c r="U12" t="n">
-        <v>26603</v>
-      </c>
-      <c r="V12" t="n">
-        <v>34162</v>
-      </c>
-      <c r="W12" t="n">
-        <v>37782</v>
-      </c>
-      <c r="X12" t="n">
-        <v>50748</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>182692</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>201327.008</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>228964.992</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>234980</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>271153.984</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>271726.016</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>284728</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>270304.992</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>289310.016</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>302524</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>270247.008</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1872,51 +1302,6 @@
       <c r="T13" t="n">
         <v>0</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1981,51 +1366,6 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2090,51 +1430,6 @@
       <c r="T15" t="n">
         <v>15715</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2199,51 +1494,6 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>69780</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>70114</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>77847</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>75341</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>71834</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>70243</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>70277</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>70875</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>70693</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>70559</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>70186</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2308,51 +1558,6 @@
       <c r="T17" t="n">
         <v>0</v>
       </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2417,51 +1622,6 @@
       <c r="T18" t="n">
         <v>0</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2526,51 +1686,6 @@
       <c r="T19" t="n">
         <v>0</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2635,51 +1750,6 @@
       <c r="T20" t="n">
         <v>20291</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2744,51 +1814,6 @@
       <c r="T21" t="n">
         <v>0</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2853,51 +1878,6 @@
       <c r="T22" t="n">
         <v>1498</v>
       </c>
-      <c r="U22" t="n">
-        <v>7914</v>
-      </c>
-      <c r="V22" t="n">
-        <v>479</v>
-      </c>
-      <c r="W22" t="n">
-        <v>595</v>
-      </c>
-      <c r="X22" t="n">
-        <v>589</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>698</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>718</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2962,51 +1942,6 @@
       <c r="T23" t="n">
         <v>22035</v>
       </c>
-      <c r="U23" t="n">
-        <v>48880</v>
-      </c>
-      <c r="V23" t="n">
-        <v>67439</v>
-      </c>
-      <c r="W23" t="n">
-        <v>103450</v>
-      </c>
-      <c r="X23" t="n">
-        <v>112880</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>148764</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>166096</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>189847.008</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>189622</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>205131.008</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>201332</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>191968</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>178167.008</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>152572</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>151158</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>152111.008</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3071,51 +2006,6 @@
       <c r="T24" t="n">
         <v>0</v>
       </c>
-      <c r="U24" t="n">
-        <v>106011</v>
-      </c>
-      <c r="V24" t="n">
-        <v>239763.008</v>
-      </c>
-      <c r="W24" t="n">
-        <v>248944</v>
-      </c>
-      <c r="X24" t="n">
-        <v>438208.992</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1546584.96</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1598845.056</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1643943.04</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1751809.024</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1735415.04</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1737548.032</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1905538.048</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1889853.952</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1869732.992</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1844411.008</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>445471.008</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3180,51 +2070,6 @@
       <c r="T25" t="n">
         <v>0</v>
       </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3289,51 +2134,6 @@
       <c r="T26" t="n">
         <v>76454</v>
       </c>
-      <c r="U26" t="n">
-        <v>420902.016</v>
-      </c>
-      <c r="V26" t="n">
-        <v>576774.976</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1356273.024</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1503452.032</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2761538.048</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2934680.064</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>3072066.048</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>3332614.912</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>3209582.08</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>3198529.024</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>3309020.928</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>3205788.928</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>3443461.12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>3195459.072</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1597284.992</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3398,51 +2198,6 @@
       <c r="T27" t="n">
         <v>33794</v>
       </c>
-      <c r="U27" t="n">
-        <v>239374</v>
-      </c>
-      <c r="V27" t="n">
-        <v>280737.984</v>
-      </c>
-      <c r="W27" t="n">
-        <v>267312.992</v>
-      </c>
-      <c r="X27" t="n">
-        <v>426811.008</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>886641.024</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1037030.976</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1127483.008</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1003387.008</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1006036.992</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>802929.9840000001</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>902139.008</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>893481.9840000001</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1027164.992</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>814257.024</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>779398.0159999999</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3507,51 +2262,6 @@
       <c r="T28" t="n">
         <v>0</v>
       </c>
-      <c r="U28" t="n">
-        <v>16598</v>
-      </c>
-      <c r="V28" t="n">
-        <v>28275</v>
-      </c>
-      <c r="W28" t="n">
-        <v>22678</v>
-      </c>
-      <c r="X28" t="n">
-        <v>31631</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>41297</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>50857</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>54493</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>50183</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>55910</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>52536</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>64298</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>61148</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>49783</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>63275</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>61882</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3616,51 +2326,6 @@
       <c r="T29" t="n">
         <v>8437</v>
       </c>
-      <c r="U29" t="n">
-        <v>161171.008</v>
-      </c>
-      <c r="V29" t="n">
-        <v>127592</v>
-      </c>
-      <c r="W29" t="n">
-        <v>155835.008</v>
-      </c>
-      <c r="X29" t="n">
-        <v>141784</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>448888</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>481540</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>543083.008</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>602177.9840000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>478393.984</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>380264.992</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>449792</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>429520</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>580784</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>436036</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>354196.992</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3725,51 +2390,6 @@
       <c r="T30" t="n">
         <v>11399</v>
       </c>
-      <c r="U30" t="n">
-        <v>8081</v>
-      </c>
-      <c r="V30" t="n">
-        <v>16693</v>
-      </c>
-      <c r="W30" t="n">
-        <v>6182</v>
-      </c>
-      <c r="X30" t="n">
-        <v>14873</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>37720</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>13900</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>49999</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>37556</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>36400</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>33696</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>21793</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>21801</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15071</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>18290</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>21081</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3834,51 +2454,6 @@
       <c r="T31" t="n">
         <v>4132</v>
       </c>
-      <c r="U31" t="n">
-        <v>38135</v>
-      </c>
-      <c r="V31" t="n">
-        <v>53847</v>
-      </c>
-      <c r="W31" t="n">
-        <v>38107</v>
-      </c>
-      <c r="X31" t="n">
-        <v>35735</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>44130</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>116446</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>155342</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>160931.008</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>330956.992</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>239296</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>256995.008</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>282223.008</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>324564.992</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>251186</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>298904</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3943,51 +2518,6 @@
       <c r="T32" t="n">
         <v>0</v>
       </c>
-      <c r="U32" t="n">
-        <v>8492</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4052,51 +2582,6 @@
       <c r="T33" t="n">
         <v>0</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4161,51 +2646,6 @@
       <c r="T34" t="n">
         <v>9826</v>
       </c>
-      <c r="U34" t="n">
-        <v>6897</v>
-      </c>
-      <c r="V34" t="n">
-        <v>54331</v>
-      </c>
-      <c r="W34" t="n">
-        <v>44511</v>
-      </c>
-      <c r="X34" t="n">
-        <v>202788</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>314606.016</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>374288</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>324566.016</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>152539.008</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>104376</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>97137</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>109261</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>98790</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>56962</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>45470</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>43334</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4270,51 +2710,6 @@
       <c r="T35" t="n">
         <v>0</v>
       </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4379,51 +2774,6 @@
       <c r="T36" t="n">
         <v>0</v>
       </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4488,51 +2838,6 @@
       <c r="T37" t="n">
         <v>61227</v>
       </c>
-      <c r="U37" t="n">
-        <v>122496</v>
-      </c>
-      <c r="V37" t="n">
-        <v>216947.008</v>
-      </c>
-      <c r="W37" t="n">
-        <v>167048.992</v>
-      </c>
-      <c r="X37" t="n">
-        <v>155092.992</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>588848</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>659403.008</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>761588.992</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>813441.9840000001</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>760201.024</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1028030.976</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>990008</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>945912</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>796427.008</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>845529.024</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>821470.976</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4597,51 +2902,6 @@
       <c r="T38" t="n">
         <v>0</v>
       </c>
-      <c r="U38" t="n">
-        <v>65511</v>
-      </c>
-      <c r="V38" t="n">
-        <v>64381</v>
-      </c>
-      <c r="W38" t="n">
-        <v>57584</v>
-      </c>
-      <c r="X38" t="n">
-        <v>61057</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>320561.984</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>329772.992</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>429494.016</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>425640.992</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>300900</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>548614.976</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>490732</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>482816.992</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>437582.016</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>482660</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>445708.992</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4706,51 +2966,6 @@
       <c r="T39" t="n">
         <v>0</v>
       </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4815,51 +3030,6 @@
       <c r="T40" t="n">
         <v>61227</v>
       </c>
-      <c r="U40" t="n">
-        <v>49609</v>
-      </c>
-      <c r="V40" t="n">
-        <v>139892</v>
-      </c>
-      <c r="W40" t="n">
-        <v>98679</v>
-      </c>
-      <c r="X40" t="n">
-        <v>83963</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>123903</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>151876.992</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>152196</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>166750</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>213094</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>233526</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>242422</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>377311.008</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>111933</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>109777</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>107122</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4924,51 +3094,6 @@
       <c r="T41" t="n">
         <v>0</v>
       </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>4443</v>
-      </c>
-      <c r="W41" t="n">
-        <v>4073</v>
-      </c>
-      <c r="X41" t="n">
-        <v>3851</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>64572</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>101229</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>101371</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>141523.008</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>164895.008</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>165772</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>174732</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>2074</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>163631.008</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>166326</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>152339.008</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5033,51 +3158,6 @@
       <c r="T42" t="n">
         <v>0</v>
       </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5142,51 +3222,6 @@
       <c r="T43" t="n">
         <v>0</v>
       </c>
-      <c r="U43" t="n">
-        <v>7376</v>
-      </c>
-      <c r="V43" t="n">
-        <v>8231</v>
-      </c>
-      <c r="W43" t="n">
-        <v>6713</v>
-      </c>
-      <c r="X43" t="n">
-        <v>6222</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>79811</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>76524</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>78528</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>79528</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>79726</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>80118</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>82122</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>83710</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>83281</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>86766</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>116301</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5251,51 +3286,6 @@
       <c r="T44" t="n">
         <v>0</v>
       </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5360,51 +3350,6 @@
       <c r="T45" t="n">
         <v>0</v>
       </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1586</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5469,51 +3414,6 @@
       <c r="T46" t="n">
         <v>0</v>
       </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5578,51 +3478,6 @@
       <c r="T47" t="n">
         <v>-18567</v>
       </c>
-      <c r="U47" t="n">
-        <v>59032</v>
-      </c>
-      <c r="V47" t="n">
-        <v>79090</v>
-      </c>
-      <c r="W47" t="n">
-        <v>921910.976</v>
-      </c>
-      <c r="X47" t="n">
-        <v>921548.032</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1286049.024</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1238246.016</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1182994.048</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>1515785.984</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1443344</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1367568</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1416873.984</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1366395.008</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1619869.056</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1535672.96</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>-3584</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5687,51 +3542,6 @@
       <c r="T48" t="n">
         <v>18950</v>
       </c>
-      <c r="U48" t="n">
-        <v>81705</v>
-      </c>
-      <c r="V48" t="n">
-        <v>72130</v>
-      </c>
-      <c r="W48" t="n">
-        <v>929214.976</v>
-      </c>
-      <c r="X48" t="n">
-        <v>932475.008</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1332786.944</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1338025.984</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1338436.992</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1338436.992</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1592544</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1592544</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1608248.064</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1608248.064</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1981809.024</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1982009.984</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1982009.984</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5796,51 +3606,6 @@
       <c r="T49" t="n">
         <v>8</v>
       </c>
-      <c r="U49" t="n">
-        <v>-25373</v>
-      </c>
-      <c r="V49" t="n">
-        <v>3685</v>
-      </c>
-      <c r="W49" t="n">
-        <v>3974</v>
-      </c>
-      <c r="X49" t="n">
-        <v>4343</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>6323</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>12068</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>17543</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>423056.992</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>177495.008</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>180124.992</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>181875.008</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>183039.008</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>188320.992</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>190032.992</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>185203.008</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5905,51 +3670,6 @@
       <c r="T50" t="n">
         <v>4717</v>
       </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6014,51 +3734,6 @@
       <c r="T51" t="n">
         <v>0</v>
       </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6123,51 +3798,6 @@
       <c r="T52" t="n">
         <v>-42242</v>
       </c>
-      <c r="U52" t="n">
-        <v>2700</v>
-      </c>
-      <c r="V52" t="n">
-        <v>3715</v>
-      </c>
-      <c r="W52" t="n">
-        <v>-10949</v>
-      </c>
-      <c r="X52" t="n">
-        <v>-14758</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>-52555</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>-112158</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>-173151.008</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>-246018</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>-325483.008</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>-405404</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>-371369.984</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>-423777.984</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>-545468.032</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>-636398.0159999999</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>-2173093.12</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6232,51 +3862,6 @@
       <c r="T53" t="n">
         <v>0</v>
       </c>
-      <c r="U53" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="n">
-        <v>-329</v>
-      </c>
-      <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>-506</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>165</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>310</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>-1212</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>303</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>-1879</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>-1114</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>-4793</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>2296</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6341,51 +3926,6 @@
       <c r="T54" t="n">
         <v>0</v>
       </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>-440</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="n">
-        <v>-512</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6450,51 +3990,6 @@
       <c r="T55" t="n">
         <v>0</v>
       </c>
-      <c r="U55" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6559,51 +4054,6 @@
       <c r="T56" t="n">
         <v>0</v>
       </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6668,21 +4118,6 @@
       <c r="T57" t="n">
         <v>16965</v>
       </c>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6747,21 +4182,6 @@
       <c r="T58" t="n">
         <v>-2951</v>
       </c>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6826,49 +4246,6 @@
       <c r="T59" t="n">
         <v>14014</v>
       </c>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="n">
-        <v>72755</v>
-      </c>
-      <c r="W59" t="n">
-        <v>79177</v>
-      </c>
-      <c r="X59" t="n">
-        <v>105118</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>165510</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>194508.992</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>220379.008</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>214572.992</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>261840</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>214156.992</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>299783.008</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>290017.984</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>268531.04</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>218996</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>265084.992</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6933,49 +4310,6 @@
       <c r="T60" t="n">
         <v>-10231</v>
       </c>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="n">
-        <v>-39145</v>
-      </c>
-      <c r="W60" t="n">
-        <v>-42759</v>
-      </c>
-      <c r="X60" t="n">
-        <v>-52932</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>-82716.992</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>-112839</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>-128832</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>-126891</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>-143863.984</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>-123317</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-170566</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>-165540</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>-157844</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>-164164</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>-199358</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7040,49 +4374,6 @@
       <c r="T61" t="n">
         <v>3783</v>
       </c>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="n">
-        <v>33610</v>
-      </c>
-      <c r="W61" t="n">
-        <v>36418</v>
-      </c>
-      <c r="X61" t="n">
-        <v>52186</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>82793.008</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>81670</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>91547</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>87682</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>117976.008</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>90840</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>129217</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>124478</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>110687.016</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>54832</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>65727</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7147,49 +4438,6 @@
       <c r="T62" t="n">
         <v>-3030</v>
       </c>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="n">
-        <v>-1057</v>
-      </c>
-      <c r="W62" t="n">
-        <v>-6792</v>
-      </c>
-      <c r="X62" t="n">
-        <v>-3321</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>-22129</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>-10577</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>-7922</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>-3474</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>-5809</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>-9269</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-13230</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>-9332</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>10676</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>-10608</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>-18574</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7254,49 +4502,6 @@
       <c r="T63" t="n">
         <v>-1244</v>
       </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="n">
-        <v>-44605</v>
-      </c>
-      <c r="W63" t="n">
-        <v>-44767</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-58281</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>-68015.992</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>-94329</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-109447</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>-102148</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-141696.992</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-103178</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-120308</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>-104973</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-138329.984</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-99792</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-154622</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7361,49 +4566,6 @@
       <c r="T64" t="n">
         <v>0</v>
       </c>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>-1376420.992</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7468,49 +4630,6 @@
       <c r="T65" t="n">
         <v>246</v>
       </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="n">
-        <v>18521</v>
-      </c>
-      <c r="W65" t="n">
-        <v>-23</v>
-      </c>
-      <c r="X65" t="n">
-        <v>147</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>-3047</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>9388</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>2405</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>3999</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>3237</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>2651</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>2199</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>21045</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>634</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7575,49 +4694,6 @@
       <c r="T66" t="n">
         <v>0</v>
       </c>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>-535</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>-1186</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>-1897</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>-561</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>-628</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>-331</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>-154</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>-14014</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>-3469</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7682,49 +4758,6 @@
       <c r="T67" t="n">
         <v>-820</v>
       </c>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="n">
-        <v>93</v>
-      </c>
-      <c r="W67" t="n">
-        <v>63</v>
-      </c>
-      <c r="X67" t="n">
-        <v>58</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>360</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7789,49 +4822,6 @@
       <c r="T68" t="n">
         <v>-2222</v>
       </c>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="n">
-        <v>-2620</v>
-      </c>
-      <c r="W68" t="n">
-        <v>271</v>
-      </c>
-      <c r="X68" t="n">
-        <v>5887</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>-12612</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>-34846</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>-44397</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>-54481</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>-45302</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>-60516</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>-50143</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>-63624</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>-97822.984</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>-34925</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>-45590</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7896,49 +4886,6 @@
       <c r="T69" t="n">
         <v>652</v>
       </c>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="n">
-        <v>1703</v>
-      </c>
-      <c r="W69" t="n">
-        <v>7998</v>
-      </c>
-      <c r="X69" t="n">
-        <v>15821</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>5140</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>8455</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>10492</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>12200</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>9596</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>11365</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>18799</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>4025</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>28133</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>20626</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>19143</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8003,49 +4950,6 @@
       <c r="T70" t="n">
         <v>-2874</v>
       </c>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="n">
-        <v>-4323</v>
-      </c>
-      <c r="W70" t="n">
-        <v>-7727</v>
-      </c>
-      <c r="X70" t="n">
-        <v>-9934</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>-17752</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>-43301</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>-54889</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>-66681</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>-54897.992</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>-71881</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>-68942</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>-67649</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>-125956</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>-55551</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>-64733</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8110,21 +5014,6 @@
       <c r="T71" t="n">
         <v>0</v>
       </c>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
-      <c r="AI71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8189,21 +5078,6 @@
       <c r="T72" t="n">
         <v>0</v>
       </c>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr"/>
-      <c r="AI72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8268,21 +5142,6 @@
       <c r="T73" t="n">
         <v>0</v>
       </c>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8347,49 +5206,6 @@
       <c r="T74" t="n">
         <v>-3287</v>
       </c>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="n">
-        <v>3942</v>
-      </c>
-      <c r="W74" t="n">
-        <v>-14830</v>
-      </c>
-      <c r="X74" t="n">
-        <v>-3324</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>-23186</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>-59248</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>-60851</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>-71913</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>-71394</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>-79514</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>-52144</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>-51406</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>-107759.008</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>-89859</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>-1532798.976</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8454,49 +5270,6 @@
       <c r="T75" t="n">
         <v>0</v>
       </c>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="n">
-        <v>-75</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>-706</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>-889</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>-577</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>-142</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>-1761</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>-82</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>-629</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>-453</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>-1224</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>-2632</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>-710</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>-3050</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8561,49 +5334,6 @@
       <c r="T76" t="n">
         <v>0</v>
       </c>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>166</v>
-      </c>
-      <c r="X76" t="n">
-        <v>222</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>-388</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>222</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>806</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>222</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>222</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>222</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>223</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>222</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>222</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8668,21 +5398,6 @@
       <c r="T77" t="n">
         <v>0</v>
       </c>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8747,21 +5462,6 @@
       <c r="T78" t="n">
         <v>0</v>
       </c>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8826,49 +5526,6 @@
       <c r="T79" t="n">
         <v>0</v>
       </c>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8932,49 +5589,6 @@
       </c>
       <c r="T80" t="n">
         <v>-3287</v>
-      </c>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="n">
-        <v>3867</v>
-      </c>
-      <c r="W80" t="n">
-        <v>-14664</v>
-      </c>
-      <c r="X80" t="n">
-        <v>-3808</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>-24463</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>-59603</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>-60993</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>-72868</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>-71475.008</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>-79921</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>-52375</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>-52408</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>-110168</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>-90347</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>-1535627.008</v>
       </c>
     </row>
   </sheetData>
